--- a/STATS/Rajasthan Royals/Jos Buttler †.xlsx
+++ b/STATS/Rajasthan Royals/Jos Buttler †.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,28 +443,28 @@
         <v>Jos Buttler †</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D3" t="str">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="str">
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="str">
-        <v>123.07</v>
+        <v>244.44</v>
       </c>
       <c r="H3" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="I3" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Delhi Capitals</v>
       </c>
     </row>
     <row r="4">
@@ -472,28 +472,28 @@
         <v>Jos Buttler †</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" t="str">
+        <v>16</v>
+      </c>
+      <c r="D4" t="str">
         <v>13</v>
       </c>
-      <c r="D4" t="str">
-        <v>8</v>
-      </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="str">
-        <v>162.50</v>
+        <v>123.07</v>
       </c>
       <c r="H4" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="I4" t="str">
-        <v>Delhi Capitals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
     </row>
     <row r="5">
@@ -501,28 +501,28 @@
         <v>Jos Buttler †</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" t="str">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D5" t="str">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E5" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>159.09</v>
+        <v>123.07</v>
       </c>
       <c r="H5" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="I5" t="str">
-        <v>Mumbai Indians</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
     </row>
     <row r="6">
@@ -530,28 +530,28 @@
         <v>Jos Buttler †</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" t="str">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D6" t="str">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="str">
-        <v>183.33</v>
+        <v>162.50</v>
       </c>
       <c r="H6" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="I6" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Delhi Capitals</v>
       </c>
     </row>
     <row r="7">
@@ -559,28 +559,28 @@
         <v>Jos Buttler †</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C7" t="str">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
         <v>2</v>
       </c>
-      <c r="F7" t="str">
-        <v>1</v>
-      </c>
       <c r="G7" t="str">
-        <v>131.25</v>
+        <v>162.50</v>
       </c>
       <c r="H7" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="I7" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Delhi Capitals</v>
       </c>
     </row>
     <row r="8">
@@ -588,33 +588,236 @@
         <v>Jos Buttler †</v>
       </c>
       <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="C8" t="str">
+        <v>70</v>
+      </c>
+      <c r="D8" t="str">
+        <v>44</v>
+      </c>
+      <c r="E8" t="str">
+        <v>5</v>
+      </c>
+      <c r="F8" t="str">
+        <v>4</v>
+      </c>
+      <c r="G8" t="str">
+        <v>159.09</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Jos Buttler †</v>
+      </c>
+      <c r="B9">
+        <v>41</v>
+      </c>
+      <c r="C9" t="str">
+        <v>70</v>
+      </c>
+      <c r="D9" t="str">
+        <v>44</v>
+      </c>
+      <c r="E9" t="str">
+        <v>5</v>
+      </c>
+      <c r="F9" t="str">
+        <v>4</v>
+      </c>
+      <c r="G9" t="str">
+        <v>159.09</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Jos Buttler †</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10" t="str">
+        <v>22</v>
+      </c>
+      <c r="D10" t="str">
+        <v>12</v>
+      </c>
+      <c r="E10" t="str">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <v>3</v>
+      </c>
+      <c r="G10" t="str">
+        <v>183.33</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Jos Buttler †</v>
+      </c>
+      <c r="B11">
+        <v>46</v>
+      </c>
+      <c r="C11" t="str">
+        <v>22</v>
+      </c>
+      <c r="D11" t="str">
+        <v>12</v>
+      </c>
+      <c r="E11" t="str">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G11" t="str">
+        <v>183.33</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Jos Buttler †</v>
+      </c>
+      <c r="B12">
+        <v>49</v>
+      </c>
+      <c r="C12" t="str">
+        <v>21</v>
+      </c>
+      <c r="D12" t="str">
+        <v>16</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <v>131.25</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Jos Buttler †</v>
+      </c>
+      <c r="B13">
+        <v>49</v>
+      </c>
+      <c r="C13" t="str">
+        <v>21</v>
+      </c>
+      <c r="D13" t="str">
+        <v>16</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2</v>
+      </c>
+      <c r="F13" t="str">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <v>131.25</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Jos Buttler †</v>
+      </c>
+      <c r="B14">
         <v>52</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C14" t="str">
         <v>4</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D14" t="str">
         <v>7</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E14" t="str">
         <v>0</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F14" t="str">
         <v>0</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G14" t="str">
         <v>57.14</v>
       </c>
-      <c r="H8" t="str">
-        <v>Rajasthan Royals</v>
-      </c>
-      <c r="I8" t="str">
+      <c r="H14" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Jos Buttler †</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
+      </c>
+      <c r="C15" t="str">
+        <v>4</v>
+      </c>
+      <c r="D15" t="str">
+        <v>7</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <v>57.14</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="I15" t="str">
         <v>Kings XI Punjab</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I15"/>
   </ignoredErrors>
 </worksheet>
 </file>